--- a/空境 复刻.xlsx
+++ b/空境 复刻.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7CEDD-0D63-43A9-AE6B-9541E7B9C39E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B829B749-E853-4636-9E9D-EDD62D7B8C6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1080" windowWidth="23220" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$101</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="314">
   <si>
     <t>No.1</t>
   </si>
@@ -974,7 +974,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,17 +1294,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="23.625" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>312</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>311</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>311</v>
       </c>
@@ -1363,7 +1363,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>311</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>311</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>51</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>55</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>59</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>311</v>
       </c>
@@ -1596,7 +1599,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>311</v>
+      </c>
       <c r="B21" t="s">
         <v>66</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>70</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>74</v>
       </c>
@@ -1638,7 +1644,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>311</v>
+      </c>
       <c r="B24" t="s">
         <v>77</v>
       </c>
@@ -1652,7 +1661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>81</v>
       </c>
@@ -1666,7 +1675,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>85</v>
       </c>
@@ -1680,7 +1689,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>89</v>
       </c>
@@ -1694,7 +1703,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="B28" t="s">
         <v>92</v>
       </c>
@@ -1708,7 +1717,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>95</v>
       </c>
@@ -1722,7 +1731,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="B30" t="s">
         <v>99</v>
       </c>
@@ -1736,7 +1745,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>102</v>
       </c>
@@ -1750,7 +1759,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>106</v>
       </c>
@@ -1764,7 +1773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>109</v>
       </c>
@@ -1778,7 +1787,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
         <v>113</v>
       </c>
@@ -1792,7 +1801,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>116</v>
       </c>
@@ -1806,7 +1815,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
         <v>119</v>
       </c>
@@ -1820,7 +1829,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
         <v>122</v>
       </c>
@@ -1834,7 +1843,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5">
       <c r="B38" t="s">
         <v>126</v>
       </c>
@@ -1848,7 +1857,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5">
       <c r="B39" t="s">
         <v>130</v>
       </c>
@@ -1862,7 +1871,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5">
       <c r="B40" t="s">
         <v>134</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5">
       <c r="B41" t="s">
         <v>137</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5">
       <c r="B42" t="s">
         <v>141</v>
       </c>
@@ -1904,7 +1913,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5">
       <c r="B43" t="s">
         <v>144</v>
       </c>
@@ -1918,7 +1927,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5">
       <c r="B44" t="s">
         <v>148</v>
       </c>
@@ -1932,7 +1941,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5">
       <c r="B45" t="s">
         <v>151</v>
       </c>
@@ -1946,7 +1955,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5">
       <c r="B46" t="s">
         <v>155</v>
       </c>
@@ -1960,7 +1969,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5">
       <c r="B47" t="s">
         <v>158</v>
       </c>
@@ -1974,7 +1983,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5">
       <c r="B48" t="s">
         <v>161</v>
       </c>
@@ -1988,7 +1997,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="B49" t="s">
         <v>165</v>
       </c>
@@ -2002,7 +2011,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="B50" t="s">
         <v>168</v>
       </c>
@@ -2016,7 +2025,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="B51" t="s">
         <v>172</v>
       </c>
@@ -2030,7 +2039,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="B52" t="s">
         <v>175</v>
       </c>
@@ -2044,7 +2053,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="B53" t="s">
         <v>178</v>
       </c>
@@ -2058,7 +2067,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="B54" t="s">
         <v>182</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="B55" t="s">
         <v>185</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="B56" t="s">
         <v>187</v>
       </c>
@@ -2100,7 +2109,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="B57" t="s">
         <v>190</v>
       </c>
@@ -2114,7 +2123,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="B58" t="s">
         <v>193</v>
       </c>
@@ -2128,7 +2137,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>311</v>
       </c>
@@ -2145,7 +2154,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>311</v>
+      </c>
       <c r="B60" t="s">
         <v>199</v>
       </c>
@@ -2159,7 +2171,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="B61" t="s">
         <v>202</v>
       </c>
@@ -2173,7 +2185,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="B62" t="s">
         <v>205</v>
       </c>
@@ -2187,7 +2199,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="B63" t="s">
         <v>208</v>
       </c>
@@ -2201,7 +2213,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="B64" t="s">
         <v>211</v>
       </c>
@@ -2215,7 +2227,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="B65" t="s">
         <v>214</v>
       </c>
@@ -2229,7 +2241,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="B66" t="s">
         <v>217</v>
       </c>
@@ -2243,7 +2255,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="B67" t="s">
         <v>219</v>
       </c>
@@ -2257,7 +2269,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="B68" t="s">
         <v>221</v>
       </c>
@@ -2271,7 +2283,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="B69" t="s">
         <v>223</v>
       </c>
@@ -2285,7 +2297,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="B70" t="s">
         <v>225</v>
       </c>
@@ -2299,7 +2311,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="B71" t="s">
         <v>227</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="B72" t="s">
         <v>230</v>
       </c>
@@ -2327,7 +2339,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="B73" t="s">
         <v>232</v>
       </c>
@@ -2341,7 +2353,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="B74" t="s">
         <v>235</v>
       </c>
@@ -2355,7 +2367,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>311</v>
+      </c>
       <c r="B75" t="s">
         <v>237</v>
       </c>
@@ -2369,7 +2384,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="B76" t="s">
         <v>239</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="B77" t="s">
         <v>241</v>
       </c>
@@ -2397,7 +2412,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="B78" t="s">
         <v>243</v>
       </c>
@@ -2411,7 +2426,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="B79" t="s">
         <v>245</v>
       </c>
@@ -2425,7 +2440,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="B80" t="s">
         <v>247</v>
       </c>
@@ -2439,7 +2454,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="B81" t="s">
         <v>249</v>
       </c>
@@ -2453,7 +2468,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="B82" t="s">
         <v>251</v>
       </c>
@@ -2467,7 +2482,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="B83" t="s">
         <v>253</v>
       </c>
@@ -2481,7 +2496,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="B84" t="s">
         <v>256</v>
       </c>
@@ -2495,7 +2510,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>311</v>
       </c>
@@ -2512,7 +2527,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="B86" t="s">
         <v>261</v>
       </c>
@@ -2526,7 +2541,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>311</v>
+      </c>
       <c r="B87" t="s">
         <v>265</v>
       </c>
@@ -2540,7 +2558,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="B88" t="s">
         <v>267</v>
       </c>
@@ -2554,7 +2572,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="B89" t="s">
         <v>270</v>
       </c>
@@ -2568,7 +2586,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="B90" t="s">
         <v>272</v>
       </c>
@@ -2582,7 +2600,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="B91" t="s">
         <v>275</v>
       </c>
@@ -2596,7 +2614,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="B92" t="s">
         <v>278</v>
       </c>
@@ -2610,7 +2628,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="B93" t="s">
         <v>281</v>
       </c>
@@ -2624,7 +2642,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="B94" t="s">
         <v>285</v>
       </c>
@@ -2638,7 +2656,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="B95" t="s">
         <v>288</v>
       </c>
@@ -2652,7 +2670,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="B96" t="s">
         <v>292</v>
       </c>
@@ -2666,7 +2684,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5">
       <c r="B97" t="s">
         <v>296</v>
       </c>
@@ -2680,7 +2698,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5">
       <c r="B98" t="s">
         <v>299</v>
       </c>
@@ -2694,7 +2712,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5">
       <c r="B99" t="s">
         <v>302</v>
       </c>
@@ -2708,7 +2726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5">
       <c r="B100" t="s">
         <v>305</v>
       </c>
@@ -2722,7 +2740,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5">
       <c r="B101" t="s">
         <v>308</v>
       </c>
